--- a/config/SnakeLevels【贪吃蛇关卡配置】.xlsx
+++ b/config/SnakeLevels【贪吃蛇关卡配置】.xlsx
@@ -1055,13 +1055,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
     <col min="4" max="5" width="25.8839285714286" customWidth="1"/>
@@ -1152,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1166,10 +1166,11 @@
         <v>20</v>
       </c>
       <c r="E6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1183,10 +1184,11 @@
         <v>60</v>
       </c>
       <c r="E7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1202,8 +1204,9 @@
       <c r="E8" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1219,8 +1222,9 @@
       <c r="E9" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1236,8 +1240,9 @@
       <c r="E10" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1253,8 +1258,9 @@
       <c r="E11" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1270,8 +1276,9 @@
       <c r="E12" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -1287,8 +1294,9 @@
       <c r="E13" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -1304,8 +1312,9 @@
       <c r="E14" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -1321,6 +1330,7 @@
       <c r="E15" s="6">
         <v>10</v>
       </c>
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
